--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H2">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.814167</v>
       </c>
       <c r="O2">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P2">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q2">
-        <v>15.481457965863</v>
+        <v>9.692682198158002</v>
       </c>
       <c r="R2">
-        <v>139.333121692767</v>
+        <v>87.23413978342201</v>
       </c>
       <c r="S2">
-        <v>0.2102047263268538</v>
+        <v>0.0958225714166161</v>
       </c>
       <c r="T2">
-        <v>0.2102047263268539</v>
+        <v>0.0958225714166161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H3">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N3">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O3">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P3">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q3">
-        <v>2.855039552994</v>
+        <v>4.370562545406001</v>
       </c>
       <c r="R3">
-        <v>25.695355976946</v>
+        <v>39.335062908654</v>
       </c>
       <c r="S3">
-        <v>0.038765264176848</v>
+        <v>0.04320770381985106</v>
       </c>
       <c r="T3">
-        <v>0.038765264176848</v>
+        <v>0.04320770381985107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H4">
         <v>162.270569</v>
       </c>
       <c r="I4">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J4">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.814167</v>
       </c>
       <c r="O4">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P4">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q4">
         <v>14.679482483447</v>
@@ -697,10 +697,10 @@
         <v>132.115342351023</v>
       </c>
       <c r="S4">
-        <v>0.1993156332470016</v>
+        <v>0.1451224470040275</v>
       </c>
       <c r="T4">
-        <v>0.1993156332470016</v>
+        <v>0.1451224470040275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H5">
         <v>162.270569</v>
       </c>
       <c r="I5">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J5">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N5">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O5">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P5">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q5">
-        <v>2.707141872563777</v>
+        <v>6.619178780078999</v>
       </c>
       <c r="R5">
-        <v>24.364276853074</v>
+        <v>59.57260902071099</v>
       </c>
       <c r="S5">
-        <v>0.03675713344989947</v>
+        <v>0.0654376898371852</v>
       </c>
       <c r="T5">
-        <v>0.03675713344989947</v>
+        <v>0.0654376898371852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H6">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I6">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J6">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.814167</v>
       </c>
       <c r="O6">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P6">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q6">
-        <v>13.71732805684</v>
+        <v>27.533210486252</v>
       </c>
       <c r="R6">
-        <v>123.45595251156</v>
+        <v>247.798894376268</v>
       </c>
       <c r="S6">
-        <v>0.1862516564319587</v>
+        <v>0.2721953504932813</v>
       </c>
       <c r="T6">
-        <v>0.1862516564319588</v>
+        <v>0.2721953504932813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H7">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I7">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J7">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N7">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O7">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P7">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q7">
-        <v>2.529704518142222</v>
+        <v>12.415099973964</v>
       </c>
       <c r="R7">
-        <v>22.76734066328</v>
+        <v>111.735899765676</v>
       </c>
       <c r="S7">
-        <v>0.03434791781862059</v>
+        <v>0.1227365944305565</v>
       </c>
       <c r="T7">
-        <v>0.0343479178186206</v>
+        <v>0.1227365944305565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H8">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I8">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J8">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.814167</v>
       </c>
       <c r="O8">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P8">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q8">
-        <v>18.303755658858</v>
+        <v>17.810966698491</v>
       </c>
       <c r="R8">
-        <v>164.733800929722</v>
+        <v>160.298700286419</v>
       </c>
       <c r="S8">
-        <v>0.2485254268369142</v>
+        <v>0.1760805310205533</v>
       </c>
       <c r="T8">
-        <v>0.2485254268369143</v>
+        <v>0.1760805310205533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H9">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I9">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J9">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N9">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O9">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P9">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q9">
-        <v>3.375518409804</v>
+        <v>8.031207704786999</v>
       </c>
       <c r="R9">
-        <v>30.379665688236</v>
+        <v>72.280869343083</v>
       </c>
       <c r="S9">
-        <v>0.04583224171190348</v>
+        <v>0.07939711197792898</v>
       </c>
       <c r="T9">
-        <v>0.04583224171190348</v>
+        <v>0.07939711197792898</v>
       </c>
     </row>
   </sheetData>
